--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose_\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE42D013-6DA7-4637-B03F-DC0864990778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A40E81-80F0-40A7-89FC-C17505171422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>Categoria</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sad</t>
   </si>
 </sst>
 </file>
@@ -425,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,6 +481,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Inventario.xlsx
+++ b/Inventario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Libreria Joda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A40E81-80F0-40A7-89FC-C17505171422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050E1425-64B3-4046-8FA9-3336E766D6DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -34,31 +34,13 @@
     <t>Precio de Venta</t>
   </si>
   <si>
-    <t>Entrada</t>
-  </si>
-  <si>
-    <t>Salida</t>
-  </si>
-  <si>
-    <t>Ganancia</t>
-  </si>
-  <si>
-    <t>Existencia</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
-    <t>asdas</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>sad</t>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Taza</t>
   </si>
 </sst>
 </file>
@@ -437,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,10 +431,9 @@
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -469,45 +450,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
